--- a/Wi-CrossPlot.xlsx
+++ b/Wi-CrossPlot.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>Code</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">         1.12.1</t>
+  </si>
+  <si>
+    <t>height-auto</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1013,6 +1016,9 @@
       <c r="J14" t="s">
         <v>12</v>
       </c>
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1038,6 +1044,9 @@
       <c r="J15" t="s">
         <v>12</v>
       </c>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1063,8 +1072,11 @@
       <c r="J16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
@@ -1088,8 +1100,11 @@
       <c r="J17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>71</v>
       </c>
@@ -1113,8 +1128,11 @@
       <c r="J18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
@@ -1138,8 +1156,11 @@
       <c r="J19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -1163,8 +1184,11 @@
       <c r="J20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1188,8 +1212,11 @@
       <c r="J21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
@@ -1214,7 +1241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -1238,8 +1265,11 @@
       <c r="J23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1249,7 +1279,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D25" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1259,7 +1289,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1269,7 +1299,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1279,7 +1309,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D28" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1289,7 +1319,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1299,7 +1329,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1309,7 +1339,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D31" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1319,7 +1349,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" t="str">
         <f t="shared" si="4"/>
         <v/>

--- a/Wi-CrossPlot.xlsx
+++ b/Wi-CrossPlot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_local\Workspace\WellInsight\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WellInsight\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>Code</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>height-auto</t>
+  </si>
+  <si>
+    <t>Save Format</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -619,23 +622,23 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -673,7 +676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -696,7 +699,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -721,10 +724,10 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
@@ -752,7 +755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -780,7 +783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.4</v>
       </c>
@@ -808,7 +811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -833,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1.6</v>
       </c>
@@ -861,7 +864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1.7</v>
       </c>
@@ -889,7 +892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1.8</v>
       </c>
@@ -917,7 +920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1.9</v>
       </c>
@@ -942,7 +945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -967,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>66</v>
       </c>
@@ -992,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>67</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>71</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1279,7 +1282,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1289,7 +1292,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1299,7 +1302,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1309,7 +1312,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1319,7 +1322,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1329,7 +1332,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1339,7 +1342,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1349,7 +1352,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1359,7 +1362,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1369,7 +1372,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" t="str">
         <f>REPLACE(C34, 1, 2, "")</f>
         <v/>
@@ -1379,43 +1382,43 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F41" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Wi-CrossPlot.xlsx
+++ b/Wi-CrossPlot.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WellInsight\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\Workspace\Github\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="1065" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CrossPlotTab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t>Code</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Zoom Out</t>
   </si>
   <si>
-    <t>ZAxesButton</t>
-  </si>
-  <si>
     <t>Z Axes</t>
   </si>
   <si>
@@ -261,12 +258,57 @@
   </si>
   <si>
     <t>Save Format</t>
+  </si>
+  <si>
+    <t>1.9.1</t>
+  </si>
+  <si>
+    <t>1.9.2</t>
+  </si>
+  <si>
+    <t>ZAxesDropdown</t>
+  </si>
+  <si>
+    <t>ZoneButton</t>
+  </si>
+  <si>
+    <t>CurveButton</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Curve</t>
+  </si>
+  <si>
+    <t>icon-left</t>
+  </si>
+  <si>
+    <t>is-check-type</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>wiCrossplot.getWiD3CrossplotCtrl().crossplotModel.properties.pointsets[0].depthType=='zonalDepth'</t>
+  </si>
+  <si>
+    <t>wiCrossplot.getWiD3CrossplotCtrl().crossplotModel.properties.pointsets[0].depthType=='intervalDepth'</t>
+  </si>
+  <si>
+    <t>wiCrossplot.getWiD3CrossplotCtrl().crossplotModel.properties.pointsets[0].idCurveZ == null</t>
+  </si>
+  <si>
+    <t>wiCrossplot.getWiD3CrossplotCtrl().crossplotModel.properties.pointsets[0].idZoneSet==null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -276,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -334,6 +382,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,14 +670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -636,9 +688,11 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="90.9375" customWidth="1"/>
+    <col min="15" max="15" width="72.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,13 +729,22 @@
       <c r="L1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -699,7 +762,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -724,10 +787,10 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
@@ -755,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -783,7 +846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="6">
         <v>1.4</v>
       </c>
@@ -811,7 +874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -826,7 +889,7 @@
         <v>Button</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="F7:F41" si="3">SUBSTITUTE(E7,"_","-")</f>
+        <f t="shared" ref="F7:F43" si="3">SUBSTITUTE(E7,"_","-")</f>
         <v/>
       </c>
       <c r="G7" t="s">
@@ -836,7 +899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="6">
         <v>1.6</v>
       </c>
@@ -864,7 +927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>1.7</v>
       </c>
@@ -892,7 +955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="6">
         <v>1.8</v>
       </c>
@@ -920,227 +983,248 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A11" s="9">
         <v>1.9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f>REPLACE(C11, 1, 2, "")</f>
+        <v>Dropdown</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="str">
-        <f>REPLACE(C11, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="str">
+        <f>REPLACE(C12, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="str">
+        <f>REPLACE(C13, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D35" si="4">REPLACE(C14, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ref="D12:D33" si="4">REPLACE(C12, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D15" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Dropdown</v>
       </c>
-      <c r="F13" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="4"/>
+        <v>Button</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="str">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="str">
         <f t="shared" si="4"/>
         <v>Button</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="F17" t="str">
+        <f t="shared" ref="F17" si="5">SUBSTITUTE(E17,"_","-")</f>
+        <v/>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="4"/>
-        <v>Button</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" ref="F15" si="5">SUBSTITUTE(E15,"_","-")</f>
-        <v/>
-      </c>
-      <c r="G15" t="s">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18:D23" si="6">REPLACE(C18, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ref="F18:F23" si="7">SUBSTITUTE(E18,"_","-")</f>
+        <v/>
+      </c>
+      <c r="G18" t="s">
         <v>47</v>
       </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ref="D16:D21" si="6">REPLACE(C16, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" ref="F16:F21" si="7">SUBSTITUTE(E16,"_","-")</f>
-        <v/>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="6"/>
-        <v>Button</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="6"/>
-        <v>Button</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1154,21 +1238,21 @@
         <v/>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1182,21 +1266,21 @@
         <v/>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1210,89 +1294,125 @@
         <v/>
       </c>
       <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="6"/>
+        <v>Button</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="6"/>
+        <v>Button</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D24" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Dropdown</v>
       </c>
-      <c r="F22" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="F24" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="4"/>
-        <v>Button</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G23" t="s">
+      <c r="J24" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
       <c r="D25" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Button</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D26" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1302,7 +1422,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1312,7 +1432,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D28" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1322,7 +1442,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D29" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1332,7 +1452,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D30" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1342,7 +1462,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D31" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1352,7 +1472,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D32" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1362,7 +1482,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D33" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1372,9 +1492,9 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D34" t="str">
-        <f>REPLACE(C34, 1, 2, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F34" t="str">
@@ -1382,44 +1502,64 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="F35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D36" t="str">
+        <f>REPLACE(C36, 1, 2, "")</f>
+        <v/>
+      </c>
       <c r="F36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="F43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1428,7 +1568,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A12" numberStoredAsText="1"/>
+    <ignoredError sqref="A14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>